--- a/temp_assets/TestList.xlsx
+++ b/temp_assets/TestList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\referee\Documents\GitHub\tw_scoring\StartList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syner\Documents\GitHub\tw_scoring\temp_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD4505-90E3-454E-AE13-5642C7F470DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067D411-9038-4BA8-9339-A2D46071FFB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>Пелих</t>
   </si>
   <si>
-    <t>Артём</t>
-  </si>
-  <si>
     <t>Зарихта</t>
   </si>
   <si>
-    <t>Роман</t>
-  </si>
-  <si>
     <t>Подоляк</t>
   </si>
   <si>
-    <t>Ефим</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
     <t>Бандурова</t>
   </si>
   <si>
@@ -55,6 +43,69 @@
   </si>
   <si>
     <t>Ж</t>
+  </si>
+  <si>
+    <t>Артём2</t>
+  </si>
+  <si>
+    <t>Артём3</t>
+  </si>
+  <si>
+    <t>Артём4</t>
+  </si>
+  <si>
+    <t>Артём 6</t>
+  </si>
+  <si>
+    <t>Артём 1</t>
+  </si>
+  <si>
+    <t>Роман 1</t>
+  </si>
+  <si>
+    <t>Ефим 1</t>
+  </si>
+  <si>
+    <t>Наталья 1</t>
+  </si>
+  <si>
+    <t>Роман 2</t>
+  </si>
+  <si>
+    <t>Ефим 3</t>
+  </si>
+  <si>
+    <t>Ефим 2</t>
+  </si>
+  <si>
+    <t>Наталья 2</t>
+  </si>
+  <si>
+    <t>Роман 3</t>
+  </si>
+  <si>
+    <t>Роман 4</t>
+  </si>
+  <si>
+    <t>Ефим 5</t>
+  </si>
+  <si>
+    <t>Наталья 3</t>
+  </si>
+  <si>
+    <t>Артём 5</t>
+  </si>
+  <si>
+    <t>Роман 5</t>
+  </si>
+  <si>
+    <t>Ефим 6</t>
+  </si>
+  <si>
+    <t>Наталья 4</t>
+  </si>
+  <si>
+    <t>Ефим 7</t>
   </si>
 </sst>
 </file>
@@ -112,7 +163,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +468,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1">
         <v>1995</v>
@@ -423,13 +485,13 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1996</v>
@@ -440,13 +502,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1996</v>
@@ -457,13 +519,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1996</v>
@@ -474,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>2000</v>
@@ -491,13 +553,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>2000</v>
@@ -508,13 +570,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1996</v>
@@ -525,13 +587,13 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>2000</v>
@@ -542,13 +604,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>2000</v>
@@ -559,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>2000</v>
@@ -576,13 +638,13 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1996</v>
@@ -593,13 +655,13 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1995</v>
@@ -610,13 +672,13 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1996</v>
@@ -627,13 +689,13 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1996</v>
@@ -644,13 +706,13 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1996</v>
@@ -661,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>2000</v>
@@ -678,13 +740,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>2000</v>
@@ -695,13 +757,13 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>1996</v>
@@ -712,13 +774,13 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>2000</v>
@@ -729,13 +791,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>2000</v>
@@ -747,13 +809,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>2000</v>
@@ -764,20 +826,397 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E26">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
         <v>1996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/temp_assets/TestList.xlsx
+++ b/temp_assets/TestList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syner\Documents\GitHub\tw_scoring\temp_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067D411-9038-4BA8-9339-A2D46071FFB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1633360-AB0A-40F6-BE20-AC42D1362311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -485,10 +485,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -502,10 +502,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -519,10 +519,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -536,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -553,10 +553,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -570,10 +570,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -587,10 +587,10 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -604,10 +604,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -621,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -638,10 +638,10 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -655,10 +655,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -672,10 +672,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -689,10 +689,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -706,10 +706,10 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -723,11 +723,11 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -735,16 +735,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>33</v>
       </c>
       <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -752,16 +752,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -769,15 +769,15 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -786,34 +786,34 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
       <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20">
         <v>2000</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -821,16 +821,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
       <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -838,15 +838,15 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
       <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -855,16 +855,16 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>54</v>
       </c>
       <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -872,16 +872,16 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>83</v>
       </c>
       <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
@@ -889,15 +889,15 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -906,16 +906,16 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -923,16 +923,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>55</v>
       </c>
       <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
@@ -940,16 +940,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -957,15 +957,15 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>64</v>
       </c>
       <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -974,16 +974,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
@@ -991,15 +991,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>88</v>
       </c>
       <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1013,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1030,10 +1030,10 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1047,10 +1047,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1064,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1081,10 +1081,10 @@
         <v>78</v>
       </c>
       <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1098,10 +1098,10 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1115,10 +1115,10 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1132,10 +1132,10 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
         <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1149,10 +1149,10 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1166,10 +1166,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1183,10 +1183,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1200,10 +1200,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
         <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
